--- a/Datasets_Final.xlsx
+++ b/Datasets_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Semester 8\Skripsi\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EFC5F1-B972-4CD8-8107-3BCD694DAB29}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A412F96D-8CFD-436F-98A2-8AF477AFCB47}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Datasets_Final.xlsx
+++ b/Datasets_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Semester 8\Skripsi\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A412F96D-8CFD-436F-98A2-8AF477AFCB47}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0747FC-D50E-4E17-B3B9-A0746809679E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
